--- a/Experiments/raw_data_modified.xlsx
+++ b/Experiments/raw_data_modified.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98415\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Data_git\Data_Analysis\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5892"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>distance</t>
   </si>
@@ -130,23 +130,38 @@
   <si>
     <t>standard_error</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>mean_diastance</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>standard_deviation</t>
+  </si>
+  <si>
+    <t>standard_error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -179,7 +194,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,20 +474,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -494,8 +511,11 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -586,7 +606,7 @@
         <v>4.0496913462636661E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>0.29086000000000001</v>
@@ -631,7 +651,7 @@
         <v>2.0093421809139421E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>0.29093999999999998</v>
@@ -676,7 +696,7 @@
         <v>1.2158947322856971E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>0.29104000000000002</v>
@@ -721,7 +741,7 @@
         <v>8.376156636548763E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>0.29083999999999999</v>
@@ -766,7 +786,7 @@
         <v>1.9390719429671539E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -799,7 +819,7 @@
         <v>0.42720800000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -831,173 +851,204 @@
         <f t="shared" si="4"/>
         <v>6.4119999999992689E-8</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <f>B3^2</f>
+        <f t="shared" ref="B10:H14" si="5">B3^2</f>
         <v>8.4692640400000005E-2</v>
       </c>
       <c r="C10">
-        <f>C3^2</f>
+        <f t="shared" si="5"/>
         <v>8.201350440000002E-2</v>
       </c>
       <c r="D10">
-        <f>D3^2</f>
+        <f t="shared" si="5"/>
         <v>7.8220902399999986E-2</v>
       </c>
       <c r="E10">
-        <f>E3^2</f>
+        <f t="shared" si="5"/>
         <v>8.0389260900000009E-2</v>
       </c>
       <c r="F10">
-        <f>F3^2</f>
+        <f t="shared" si="5"/>
         <v>8.7166657600000003E-2</v>
       </c>
       <c r="G10">
-        <f>G3^2</f>
+        <f t="shared" si="5"/>
         <v>8.5322410000000015E-2</v>
       </c>
       <c r="H10">
-        <f>H3^2</f>
+        <f t="shared" si="5"/>
         <v>0.18235462090000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <f>B4^2</f>
+        <f t="shared" si="5"/>
         <v>8.4599539600000009E-2</v>
       </c>
       <c r="C11">
-        <f>C4^2</f>
+        <f t="shared" si="5"/>
         <v>8.7852959999999994E-2</v>
       </c>
       <c r="D11">
-        <f>D4^2</f>
+        <f t="shared" si="5"/>
         <v>7.8411200399999992E-2</v>
       </c>
       <c r="E11">
-        <f>E4^2</f>
+        <f t="shared" si="5"/>
         <v>8.0309892099999988E-2</v>
       </c>
       <c r="F11">
-        <f>F4^2</f>
+        <f t="shared" si="5"/>
         <v>8.7172562500000009E-2</v>
       </c>
       <c r="G11">
-        <f>G4^2</f>
+        <f t="shared" si="5"/>
         <v>8.5275680399999998E-2</v>
       </c>
       <c r="H11">
-        <f>H4^2</f>
+        <f t="shared" si="5"/>
         <v>0.18221799690000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>AVERAGE(J3:J7)</f>
+        <v>0.40687999999999996</v>
+      </c>
+      <c r="K11">
+        <f>((J3-J11)^2+(J4-J11)^2+(J5-J11)^2+(J6-J11)^2+(J7-J11)^2)/(5-1)</f>
+        <v>3.1329999999999975E-4</v>
+      </c>
+      <c r="L11">
+        <f>SQRT(K11)</f>
+        <v>1.7700282483621547E-2</v>
+      </c>
+      <c r="M11">
+        <f>L11/SQRT(5)</f>
+        <v>7.9158069708653162E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <f>B5^2</f>
+        <f t="shared" si="5"/>
         <v>8.4646083599999991E-2</v>
       </c>
       <c r="C12">
-        <f>C5^2</f>
+        <f t="shared" si="5"/>
         <v>8.1956238399999992E-2</v>
       </c>
       <c r="D12">
-        <f>D5^2</f>
+        <f t="shared" si="5"/>
         <v>7.8640984900000002E-2</v>
       </c>
       <c r="E12">
-        <f>E5^2</f>
+        <f t="shared" si="5"/>
         <v>8.0162596899999994E-2</v>
       </c>
       <c r="F12">
-        <f>F5^2</f>
+        <f t="shared" si="5"/>
         <v>8.7119425599999981E-2</v>
       </c>
       <c r="G12">
-        <f>G5^2</f>
+        <f t="shared" si="5"/>
         <v>8.5380840000000013E-2</v>
       </c>
       <c r="H12">
-        <f>H5^2</f>
+        <f t="shared" si="5"/>
         <v>0.1826109289</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <f>B6^2</f>
+        <f t="shared" si="5"/>
         <v>8.4704281600000014E-2</v>
       </c>
       <c r="C13">
-        <f>C6^2</f>
+        <f t="shared" si="5"/>
         <v>8.1956238399999992E-2</v>
       </c>
       <c r="D13">
-        <f>D6^2</f>
+        <f t="shared" si="5"/>
         <v>7.8355206400000002E-2</v>
       </c>
       <c r="E13">
-        <f>E6^2</f>
+        <f t="shared" si="5"/>
         <v>8.0304224400000013E-2</v>
       </c>
       <c r="F13">
-        <f>F6^2</f>
+        <f t="shared" si="5"/>
         <v>8.7154848399999985E-2</v>
       </c>
       <c r="G13">
-        <f>G6^2</f>
+        <f t="shared" si="5"/>
         <v>8.5118062500000008E-2</v>
       </c>
       <c r="H13">
-        <f>H6^2</f>
+        <f t="shared" si="5"/>
         <v>0.18259383610000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <f>B7^2</f>
+        <f t="shared" si="5"/>
         <v>8.4587905599999999E-2</v>
       </c>
       <c r="C14">
-        <f>C7^2</f>
+        <f t="shared" si="5"/>
         <v>8.207079040000001E-2</v>
       </c>
       <c r="D14">
-        <f>D7^2</f>
+        <f t="shared" si="5"/>
         <v>7.8377601599999999E-2</v>
       </c>
       <c r="E14">
-        <f>E7^2</f>
+        <f t="shared" si="5"/>
         <v>8.0139948100000011E-2</v>
       </c>
       <c r="F14">
-        <f>F7^2</f>
+        <f t="shared" si="5"/>
         <v>8.7119425599999981E-2</v>
       </c>
       <c r="G14">
-        <f>G7^2</f>
+        <f t="shared" si="5"/>
         <v>8.5299043599999985E-2</v>
       </c>
       <c r="H14">
-        <f>H7^2</f>
+        <f t="shared" si="5"/>
         <v>0.18275624999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1074,7 @@
         <v>9.843</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1100,7 @@
         <v>9.8510000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1126,7 @@
         <v>9.8290000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1101,7 +1152,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1178,7 @@
         <v>9.8219999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1144,56 +1195,56 @@
         <v>9.8843999999999994</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:H20" si="5">AVERAGE(E15:E19)</f>
+        <f t="shared" ref="E20:H20" si="6">AVERAGE(E15:E19)</f>
         <v>9.8797999999999995</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9710000000000001</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9491999999999994</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8349999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:H21" si="6">STDEVP(B15:B19)</f>
+        <f t="shared" ref="B21:H21" si="7">STDEVP(B15:B19)</f>
         <v>5.4405882034944267E-3</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.9638694583964121E-3</v>
       </c>
       <c r="D21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7211623979160467E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.180508365069843E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5298221281348462E-3</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5782092569037845E-3</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0488088481701902E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>

--- a/Experiments/raw_data_modified.xlsx
+++ b/Experiments/raw_data_modified.xlsx
@@ -24,50 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>distance</t>
   </si>
   <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>average g</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
-    <t>deviation</t>
-  </si>
-  <si>
-    <t>T^2 1</t>
-  </si>
-  <si>
-    <t>T^2 2</t>
-  </si>
-  <si>
-    <t>T^2 3</t>
-  </si>
-  <si>
-    <t>T^2 4</t>
-  </si>
-  <si>
-    <t>T^2 5</t>
-  </si>
-  <si>
     <t>case1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,14 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>case6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mean_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,9 +87,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>mean_diastance</t>
-  </si>
-  <si>
     <t>variance</t>
   </si>
   <si>
@@ -145,6 +94,12 @@
   </si>
   <si>
     <t>standard_error</t>
+  </si>
+  <si>
+    <t>average_g</t>
+  </si>
+  <si>
+    <t>mean_dis</t>
   </si>
 </sst>
 </file>
@@ -187,11 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,16 +428,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
@@ -489,33 +448,27 @@
     <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,34 +487,28 @@
       <c r="F2">
         <v>0.43447999999999998</v>
       </c>
-      <c r="G2">
-        <v>0.42448000000000002</v>
-      </c>
-      <c r="H2">
-        <v>0.89748000000000006</v>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.29102</v>
@@ -578,35 +525,29 @@
       <c r="F3">
         <v>0.29524</v>
       </c>
-      <c r="G3">
-        <v>0.29210000000000003</v>
-      </c>
       <c r="H3">
-        <v>0.42703000000000002</v>
+        <v>0.40948000000000001</v>
+      </c>
+      <c r="I3">
+        <f>2*H3/J3^2</f>
+        <v>9.675107992828627</v>
       </c>
       <c r="J3">
-        <v>0.40948000000000001</v>
-      </c>
-      <c r="K3">
         <v>0.29093999999999998</v>
       </c>
+      <c r="K3" s="2">
+        <v>8.2000000000014102E-9</v>
+      </c>
       <c r="L3">
-        <f>2*J3/K3^2</f>
-        <v>9.675107992828627</v>
+        <f>SQRT(K3)</f>
+        <v>9.0553851381381951E-5</v>
       </c>
       <c r="M3">
-        <v>8.2000000000014135E-9</v>
-      </c>
-      <c r="N3">
-        <f>SQRT(M3)</f>
-        <v>9.0553851381381965E-5</v>
-      </c>
-      <c r="O3">
-        <f>N3/SQRT(5)</f>
-        <v>4.0496913462636661E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <f>L3/SQRT(5)</f>
+        <v>4.0496913462636654E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>0.29086000000000001</v>
@@ -623,35 +564,29 @@
       <c r="F4">
         <v>0.29525000000000001</v>
       </c>
-      <c r="G4">
-        <v>0.29202</v>
-      </c>
       <c r="H4">
-        <v>0.42687000000000003</v>
+        <v>0.40648000000000001</v>
+      </c>
+      <c r="I4">
+        <f>2*H4/J4^2</f>
+        <v>9.7765830816769288</v>
       </c>
       <c r="J4">
-        <v>0.40648000000000001</v>
+        <v>0.28836400000000001</v>
       </c>
       <c r="K4">
-        <v>0.28836400000000001</v>
+        <v>2.0187279999999994E-5</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L7" si="0">2*J4/K4^2</f>
-        <v>9.7765830816769288</v>
+        <f t="shared" ref="L4:L7" si="0">SQRT(K4)</f>
+        <v>4.4930257065812556E-3</v>
       </c>
       <c r="M4">
-        <v>2.0187279999999994E-5</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N7" si="1">SQRT(M4)</f>
-        <v>4.4930257065812556E-3</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O7" si="2">N4/SQRT(5)</f>
+        <f t="shared" ref="M4:M7" si="1">L4/SQRT(5)</f>
         <v>2.0093421809139421E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>0.29093999999999998</v>
@@ -668,35 +603,29 @@
       <c r="F5">
         <v>0.29515999999999998</v>
       </c>
-      <c r="G5">
-        <v>0.29220000000000002</v>
-      </c>
       <c r="H5">
-        <v>0.42732999999999999</v>
+        <v>0.38747999999999999</v>
+      </c>
+      <c r="I5">
+        <f>2*H5/J5^2</f>
+        <v>9.884552669151434</v>
       </c>
       <c r="J5">
-        <v>0.38747999999999999</v>
+        <v>0.28000199999999997</v>
       </c>
       <c r="K5">
-        <v>0.28000199999999997</v>
+        <v>7.3920000000005363E-8</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>9.884552669151434</v>
+        <v>2.7188232748747272E-4</v>
       </c>
       <c r="M5">
-        <v>7.3920000000005363E-8</v>
-      </c>
-      <c r="N5">
         <f t="shared" si="1"/>
-        <v>2.7188232748747272E-4</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
         <v>1.2158947322856971E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>0.29104000000000002</v>
@@ -713,35 +642,29 @@
       <c r="F6">
         <v>0.29521999999999998</v>
       </c>
-      <c r="G6">
-        <v>0.29175000000000001</v>
-      </c>
       <c r="H6">
-        <v>0.42731000000000002</v>
+        <v>0.39648</v>
+      </c>
+      <c r="I6">
+        <f>2*H6/J6^2</f>
+        <v>9.8797480052495743</v>
       </c>
       <c r="J6">
-        <v>0.39648</v>
+        <v>0.283304</v>
       </c>
       <c r="K6">
-        <v>0.283304</v>
+        <v>3.5079999999999941E-8</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>9.8797480052495743</v>
+        <v>1.8729655629509033E-4</v>
       </c>
       <c r="M6">
-        <v>3.5079999999999941E-8</v>
-      </c>
-      <c r="N6">
         <f t="shared" si="1"/>
-        <v>1.8729655629509033E-4</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
         <v>8.376156636548763E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>0.29083999999999999</v>
@@ -758,186 +681,138 @@
       <c r="F7">
         <v>0.29515999999999998</v>
       </c>
-      <c r="G7">
-        <v>0.29205999999999999</v>
-      </c>
       <c r="H7">
-        <v>0.42749999999999999</v>
+        <v>0.43447999999999998</v>
+      </c>
+      <c r="I7">
+        <f>2*H7/J7^2</f>
+        <v>9.9712458677098414</v>
       </c>
       <c r="J7">
-        <v>0.43447999999999998</v>
+        <v>0.29520599999999997</v>
       </c>
       <c r="K7">
-        <v>0.29520599999999997</v>
+        <v>1.880000000001207E-9</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>9.9712458677098414</v>
+        <v>4.3358966777371517E-5</v>
       </c>
       <c r="M7">
-        <v>1.880000000001207E-9</v>
-      </c>
-      <c r="N7">
         <f t="shared" si="1"/>
-        <v>4.3358966777371517E-5</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
         <v>1.9390719429671539E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <f>AVERAGE(B3:B7)</f>
         <v>0.29093999999999998</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:H8" si="3">AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C8:F8" si="2">AVERAGE(C3:C7)</f>
         <v>0.28836400000000001</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.28000199999999997</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.283304</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.29520599999999997</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0.29202600000000001</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0.42720800000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B9">
+        <v>9.675107992828627</v>
+      </c>
+      <c r="C9">
+        <v>9.7765830816769288</v>
+      </c>
+      <c r="D9">
+        <v>9.884552669151434</v>
+      </c>
+      <c r="E9">
+        <v>9.8797480052495743</v>
+      </c>
+      <c r="F9">
+        <v>9.9712458677098414</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <f>((B3-B8)^2+(B4-B8)^2+(B5-B8)^2+(B6-B8)^2+(B7-B8)^2)/(5-1)</f>
         <v>8.2000000000014135E-9</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:H9" si="4">((C3-C8)^2+(C4-C8)^2+(C5-C8)^2+(C6-C8)^2+(C7-C8)^2)/(5-1)</f>
+      <c r="C10">
+        <f>((C3-C8)^2+(C4-C8)^2+(C5-C8)^2+(C6-C8)^2+(C7-C8)^2)/(5-1)</f>
         <v>2.0187279999999994E-5</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="4"/>
+      <c r="D10">
+        <f>((D3-D8)^2+(D4-D8)^2+(D5-D8)^2+(D6-D8)^2+(D7-D8)^2)/(5-1)</f>
         <v>7.3920000000005363E-8</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
+      <c r="E10">
+        <f>((E3-E8)^2+(E4-E8)^2+(E5-E8)^2+(E6-E8)^2+(E7-E8)^2)/(5-1)</f>
         <v>3.5079999999999941E-8</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
+      <c r="F10">
+        <f>((F3-F8)^2+(F4-F8)^2+(F5-F8)^2+(F6-F8)^2+(F7-F8)^2)/(5-1)</f>
         <v>1.880000000001207E-9</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>2.8280000000000777E-8</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>6.4119999999992689E-8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ref="B10:H14" si="5">B3^2</f>
-        <v>8.4692640400000005E-2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="5"/>
-        <v>8.201350440000002E-2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="5"/>
-        <v>7.8220902399999986E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="5"/>
-        <v>8.0389260900000009E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="5"/>
-        <v>8.7166657600000003E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>8.5322410000000015E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="5"/>
-        <v>0.18235462090000001</v>
-      </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <f t="shared" si="5"/>
-        <v>8.4599539600000009E-2</v>
+        <v>9.0553851381381965E-5</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
-        <v>8.7852959999999994E-2</v>
+        <v>4.4930257065812556E-3</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
-        <v>7.8411200399999992E-2</v>
+        <v>2.7188232748747272E-4</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
-        <v>8.0309892099999988E-2</v>
+        <v>1.8729655629509033E-4</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
-        <v>8.7172562500000009E-2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>8.5275680399999998E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="5"/>
-        <v>0.18221799690000001</v>
+        <v>4.3358966777371517E-5</v>
       </c>
       <c r="J11">
-        <f>AVERAGE(J3:J7)</f>
+        <f>AVERAGE(H3:H7)</f>
         <v>0.40687999999999996</v>
       </c>
       <c r="K11">
-        <f>((J3-J11)^2+(J4-J11)^2+(J5-J11)^2+(J6-J11)^2+(J7-J11)^2)/(5-1)</f>
+        <f>((H3-J11)^2+(H4-J11)^2+(H5-J11)^2+(H6-J11)^2+(H7-J11)^2)/(5-1)</f>
         <v>3.1329999999999975E-4</v>
       </c>
       <c r="L11">
@@ -949,325 +824,24 @@
         <v>7.9158069708653162E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <f t="shared" si="5"/>
-        <v>8.4646083599999991E-2</v>
+        <v>4.0496913462636661E-5</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
-        <v>8.1956238399999992E-2</v>
+        <v>2.0093421809139421E-3</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
-        <v>7.8640984900000002E-2</v>
+        <v>1.2158947322856971E-4</v>
       </c>
       <c r="E12">
-        <f t="shared" si="5"/>
-        <v>8.0162596899999994E-2</v>
+        <v>8.376156636548763E-5</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
-        <v>8.7119425599999981E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>8.5380840000000013E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="5"/>
-        <v>0.1826109289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="5"/>
-        <v>8.4704281600000014E-2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="5"/>
-        <v>8.1956238399999992E-2</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="5"/>
-        <v>7.8355206400000002E-2</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="5"/>
-        <v>8.0304224400000013E-2</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>8.7154848399999985E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>8.5118062500000008E-2</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="5"/>
-        <v>0.18259383610000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="5"/>
-        <v>8.4587905599999999E-2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="5"/>
-        <v>8.207079040000001E-2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="5"/>
-        <v>7.8377601599999999E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
-        <v>8.0139948100000011E-2</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>8.7119425599999981E-2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>8.5299043599999985E-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="5"/>
-        <v>0.18275624999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>9.67</v>
-      </c>
-      <c r="C15">
-        <v>9.9130000000000003</v>
-      </c>
-      <c r="D15">
-        <v>9.907</v>
-      </c>
-      <c r="E15">
-        <v>9.8640000000000008</v>
-      </c>
-      <c r="F15">
-        <v>9.9689999999999994</v>
-      </c>
-      <c r="G15">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="H15">
-        <v>9.843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>9.68</v>
-      </c>
-      <c r="C16">
-        <v>9.9109999999999996</v>
-      </c>
-      <c r="D16">
-        <v>9.8829999999999991</v>
-      </c>
-      <c r="E16">
-        <v>9.8740000000000006</v>
-      </c>
-      <c r="F16">
-        <v>9.968</v>
-      </c>
-      <c r="G16">
-        <v>9.9550000000000001</v>
-      </c>
-      <c r="H16">
-        <v>9.8510000000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>9.6750000000000007</v>
-      </c>
-      <c r="C17">
-        <v>9.9190000000000005</v>
-      </c>
-      <c r="D17">
-        <v>9.8539999999999992</v>
-      </c>
-      <c r="E17">
-        <v>9.8919999999999995</v>
-      </c>
-      <c r="F17">
-        <v>9.9740000000000002</v>
-      </c>
-      <c r="G17">
-        <v>9.9429999999999996</v>
-      </c>
-      <c r="H17">
-        <v>9.8290000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>9.6679999999999993</v>
-      </c>
-      <c r="C18">
-        <v>9.9190000000000005</v>
-      </c>
-      <c r="D18">
-        <v>9.89</v>
-      </c>
-      <c r="E18">
-        <v>9.8740000000000006</v>
-      </c>
-      <c r="F18">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="G18">
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="H18">
-        <v>9.83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>9.6820000000000004</v>
-      </c>
-      <c r="C19">
-        <v>9.9060000000000006</v>
-      </c>
-      <c r="D19">
-        <v>9.8879999999999999</v>
-      </c>
-      <c r="E19">
-        <v>9.8949999999999996</v>
-      </c>
-      <c r="F19">
-        <v>9.9740000000000002</v>
-      </c>
-      <c r="G19">
-        <v>9.9529999999999994</v>
-      </c>
-      <c r="H19">
-        <v>9.8219999999999992</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <f>AVERAGE(B15:B19)</f>
-        <v>9.6750000000000007</v>
-      </c>
-      <c r="C20">
-        <f>AVERAGE(C15:C19)</f>
-        <v>9.9135999999999989</v>
-      </c>
-      <c r="D20">
-        <f>AVERAGE(D15:D19)</f>
-        <v>9.8843999999999994</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:H20" si="6">AVERAGE(E15:E19)</f>
-        <v>9.8797999999999995</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="6"/>
-        <v>9.9710000000000001</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
-        <v>9.9491999999999994</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="6"/>
-        <v>9.8349999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21:H21" si="7">STDEVP(B15:B19)</f>
-        <v>5.4405882034944267E-3</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="7"/>
-        <v>4.9638694583964121E-3</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="7"/>
-        <v>1.7211623979160467E-2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="7"/>
-        <v>1.180508365069843E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="7"/>
-        <v>2.5298221281348462E-3</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="7"/>
-        <v>4.5782092569037845E-3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="7"/>
-        <v>1.0488088481701902E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>2.4329999999999998E-3</v>
-      </c>
-      <c r="C22">
-        <v>2.2200000000000002E-3</v>
-      </c>
-      <c r="D22">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="E22">
-        <v>5.28E-3</v>
-      </c>
-      <c r="F22">
-        <v>1.1310000000000001E-3</v>
-      </c>
-      <c r="G22">
-        <v>2.0470000000000002E-3</v>
-      </c>
-      <c r="H22">
-        <v>4.6899999999999997E-3</v>
+        <v>1.9390719429671539E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Experiments/raw_data_modified.xlsx
+++ b/Experiments/raw_data_modified.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Data_git\Data_Analysis\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98415\Data_Analysis\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5892"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>distance</t>
   </si>
@@ -100,23 +100,39 @@
   </si>
   <si>
     <t>mean_dis</t>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean_g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,15 +158,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,27 +450,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -468,7 +490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -547,7 +569,7 @@
         <v>4.0496913462636654E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>0.29086000000000001</v>
@@ -586,7 +608,7 @@
         <v>2.0093421809139421E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>0.29093999999999998</v>
@@ -625,7 +647,7 @@
         <v>1.2158947322856971E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>0.29104000000000002</v>
@@ -664,7 +686,7 @@
         <v>8.376156636548763E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>0.29083999999999999</v>
@@ -703,7 +725,7 @@
         <v>1.9390719429671539E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -728,53 +750,46 @@
         <v>0.29520599999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9">
+        <f>2*B2/B8^2</f>
         <v>9.675107992828627</v>
       </c>
       <c r="C9">
+        <f t="shared" ref="C9:F9" si="3">2*C2/C8^2</f>
         <v>9.7765830816769288</v>
       </c>
       <c r="D9">
+        <f t="shared" si="3"/>
         <v>9.884552669151434</v>
       </c>
       <c r="E9">
+        <f t="shared" si="3"/>
         <v>9.8797480052495743</v>
       </c>
       <c r="F9">
+        <f t="shared" si="3"/>
         <v>9.9712458677098414</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <f>((B3-B8)^2+(B4-B8)^2+(B5-B8)^2+(B6-B8)^2+(B7-B8)^2)/(5-1)</f>
-        <v>8.2000000000014135E-9</v>
-      </c>
-      <c r="C10">
-        <f>((C3-C8)^2+(C4-C8)^2+(C5-C8)^2+(C6-C8)^2+(C7-C8)^2)/(5-1)</f>
-        <v>2.0187279999999994E-5</v>
-      </c>
-      <c r="D10">
-        <f>((D3-D8)^2+(D4-D8)^2+(D5-D8)^2+(D6-D8)^2+(D7-D8)^2)/(5-1)</f>
-        <v>7.3920000000005363E-8</v>
-      </c>
-      <c r="E10">
-        <f>((E3-E8)^2+(E4-E8)^2+(E5-E8)^2+(E6-E8)^2+(E7-E8)^2)/(5-1)</f>
-        <v>3.5079999999999941E-8</v>
-      </c>
-      <c r="F10">
-        <f>((F3-F8)^2+(F4-F8)^2+(F5-F8)^2+(F6-F8)^2+(F7-F8)^2)/(5-1)</f>
-        <v>1.880000000001207E-9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <f>AVERAGE(B9:F9)</f>
+        <v>9.8374475233232808</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="J10" t="s">
         <v>20</v>
       </c>
@@ -788,25 +803,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>9.0553851381381965E-5</v>
-      </c>
-      <c r="C11">
-        <v>4.4930257065812556E-3</v>
-      </c>
-      <c r="D11">
-        <v>2.7188232748747272E-4</v>
-      </c>
-      <c r="E11">
-        <v>1.8729655629509033E-4</v>
-      </c>
-      <c r="F11">
-        <v>4.3358966777371517E-5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <f>STDEVP(B9:F9)</f>
+        <v>0.10194981698210133</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="J11">
         <f>AVERAGE(H3:H7)</f>
         <v>0.40687999999999996</v>
@@ -824,27 +832,100 @@
         <v>7.9158069708653162E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B11/SQRT(5)</f>
+        <v>4.5593344213128204E-2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>((B3-B8)^2+(B4-B8)^2+(B5-B8)^2+(B6-B8)^2+(B7-B8)^2)/(5-1)</f>
+        <v>8.2000000000014135E-9</v>
+      </c>
+      <c r="C14">
+        <f>((C3-C8)^2+(C4-C8)^2+(C5-C8)^2+(C6-C8)^2+(C7-C8)^2)/(5-1)</f>
+        <v>2.0187279999999994E-5</v>
+      </c>
+      <c r="D14">
+        <f>((D3-D8)^2+(D4-D8)^2+(D5-D8)^2+(D6-D8)^2+(D7-D8)^2)/(5-1)</f>
+        <v>7.3920000000005363E-8</v>
+      </c>
+      <c r="E14">
+        <f>((E3-E8)^2+(E4-E8)^2+(E5-E8)^2+(E6-E8)^2+(E7-E8)^2)/(5-1)</f>
+        <v>3.5079999999999941E-8</v>
+      </c>
+      <c r="F14">
+        <f>((F3-F8)^2+(F4-F8)^2+(F5-F8)^2+(F6-F8)^2+(F7-F8)^2)/(5-1)</f>
+        <v>1.880000000001207E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>9.0553851381381965E-5</v>
+      </c>
+      <c r="C15">
+        <v>4.4930257065812556E-3</v>
+      </c>
+      <c r="D15">
+        <v>2.7188232748747272E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.8729655629509033E-4</v>
+      </c>
+      <c r="F15">
+        <v>4.3358966777371517E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>4.0496913462636661E-5</v>
       </c>
-      <c r="C12">
+      <c r="C16">
         <v>2.0093421809139421E-3</v>
       </c>
-      <c r="D12">
+      <c r="D16">
         <v>1.2158947322856971E-4</v>
       </c>
-      <c r="E12">
+      <c r="E16">
         <v>8.376156636548763E-5</v>
       </c>
-      <c r="F12">
+      <c r="F16">
         <v>1.9390719429671539E-5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
